--- a/app/static/invoices/INV-2020-09-0013.xlsx
+++ b/app/static/invoices/INV-2020-09-0013.xlsx
@@ -1686,7 +1686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A4:H46"/>
+  <dimension ref="A4:H48"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="0" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
@@ -2010,10 +2010,10 @@
         <v>7</v>
       </c>
       <c r="D31" s="145" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E31" s="146" t="n">
-        <v>28</v>
+        <v>24.5</v>
       </c>
       <c r="G31" s="147" t="n">
         <v>9800</v>
@@ -2023,93 +2023,135 @@
       </c>
     </row>
     <row r="32" ht="13.5" customHeight="1" s="100">
-      <c r="E32" s="148" t="n">
-        <v>28</v>
-      </c>
+      <c r="A32" s="142" t="inlineStr">
+        <is>
+          <t>000111</t>
+        </is>
+      </c>
+      <c r="B32" s="143" t="inlineStr">
+        <is>
+          <t>애터미 알래스카 이-오메가3</t>
+        </is>
+      </c>
+      <c r="C32" s="144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="145" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E32" s="146" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G32" s="147" t="n"/>
     </row>
     <row r="33" ht="13.5" customHeight="1" s="100">
-      <c r="B33" s="96" t="inlineStr">
+      <c r="A33" s="142" t="inlineStr">
+        <is>
+          <t>1235</t>
+        </is>
+      </c>
+      <c r="B33" s="143" t="inlineStr">
+        <is>
+          <t>애터미 옴므 에너자이징 올인원</t>
+        </is>
+      </c>
+      <c r="C33" s="144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="145" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="E33" s="146" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="G33" s="147" t="n"/>
+    </row>
+    <row r="34" ht="13.5" customHeight="1" s="100">
+      <c r="E34" s="148" t="n">
+        <v>34.75</v>
+      </c>
+    </row>
+    <row r="35" ht="13.5" customHeight="1" s="100">
+      <c r="B35" s="96" t="inlineStr">
         <is>
           <t>EX-RATE</t>
         </is>
       </c>
-      <c r="C33" s="149" t="n"/>
-    </row>
-    <row r="34" ht="13.5" customHeight="1" s="100"/>
-    <row r="35" ht="13.5" customHeight="1" s="100"/>
-    <row r="36" ht="13.5" customHeight="1" s="100">
-      <c r="A36" s="150" t="inlineStr">
+      <c r="C35" s="149" t="n"/>
+    </row>
+    <row r="36" ht="13.5" customHeight="1" s="100"/>
+    <row r="37" ht="13.5" customHeight="1" s="100"/>
+    <row r="38" ht="13.5" customHeight="1" s="100">
+      <c r="A38" s="150" t="inlineStr">
         <is>
           <t>Carton (s)</t>
         </is>
       </c>
-      <c r="B36" s="151" t="inlineStr">
+      <c r="B38" s="151" t="inlineStr">
         <is>
           <t>1 BOX</t>
         </is>
       </c>
-      <c r="C36" s="152" t="n"/>
-      <c r="D36" s="153" t="inlineStr">
+      <c r="C38" s="152" t="n"/>
+      <c r="D38" s="153" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E36" s="154" t="n"/>
-    </row>
-    <row r="37" ht="13.5" customHeight="1" s="100">
-      <c r="A37" s="155" t="n"/>
-      <c r="B37" s="156" t="n"/>
-      <c r="C37" s="157" t="n"/>
-      <c r="D37" s="158" t="n"/>
-      <c r="E37" s="159" t="n"/>
-    </row>
-    <row r="38" ht="13.5" customHeight="1" s="100">
-      <c r="A38" s="155" t="n"/>
-      <c r="B38" s="156" t="n"/>
-      <c r="C38" s="160" t="n"/>
-      <c r="D38" s="161" t="inlineStr">
-        <is>
-          <t>28.0 USD</t>
-        </is>
-      </c>
-      <c r="E38" s="162" t="n"/>
+      <c r="E38" s="154" t="n"/>
     </row>
     <row r="39" ht="13.5" customHeight="1" s="100">
-      <c r="A39" s="155" t="inlineStr">
+      <c r="A39" s="155" t="n"/>
+      <c r="B39" s="156" t="n"/>
+      <c r="C39" s="157" t="n"/>
+      <c r="D39" s="158" t="n"/>
+      <c r="E39" s="159" t="n"/>
+    </row>
+    <row r="40" ht="13.5" customHeight="1" s="100">
+      <c r="A40" s="155" t="n"/>
+      <c r="B40" s="156" t="n"/>
+      <c r="C40" s="160" t="n"/>
+      <c r="D40" s="161" t="inlineStr">
+        <is>
+          <t>34.75 USD</t>
+        </is>
+      </c>
+      <c r="E40" s="162" t="n"/>
+    </row>
+    <row r="41" ht="13.5" customHeight="1" s="100">
+      <c r="A41" s="155" t="inlineStr">
         <is>
           <t>Total Weight</t>
         </is>
       </c>
-      <c r="B39" s="163" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="C39" s="160" t="n"/>
-      <c r="D39" s="97" t="n"/>
-      <c r="E39" s="162" t="n"/>
-    </row>
-    <row r="40" ht="13.5" customHeight="1" s="100">
-      <c r="A40" s="164" t="n"/>
-      <c r="B40" s="165" t="n"/>
-      <c r="C40" s="166" t="n"/>
-      <c r="D40" s="167" t="n"/>
-      <c r="E40" s="168" t="n"/>
-    </row>
-    <row r="41" ht="13.5" customHeight="1" s="100"/>
-    <row r="42" ht="13.5" customHeight="1" s="100"/>
+      <c r="B41" s="163" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="C41" s="160" t="n"/>
+      <c r="D41" s="97" t="n"/>
+      <c r="E41" s="162" t="n"/>
+    </row>
+    <row r="42" ht="13.5" customHeight="1" s="100">
+      <c r="A42" s="164" t="n"/>
+      <c r="B42" s="165" t="n"/>
+      <c r="C42" s="166" t="n"/>
+      <c r="D42" s="167" t="n"/>
+      <c r="E42" s="168" t="n"/>
+    </row>
     <row r="43" ht="13.5" customHeight="1" s="100"/>
     <row r="44" ht="13.5" customHeight="1" s="100"/>
     <row r="45" ht="13.5" customHeight="1" s="100"/>
-    <row r="46" ht="13.5" customHeight="1" s="100">
-      <c r="C46" s="169" t="inlineStr">
+    <row r="46" ht="13.5" customHeight="1" s="100"/>
+    <row r="47" ht="13.5" customHeight="1" s="100"/>
+    <row r="48" ht="13.5" customHeight="1" s="100">
+      <c r="C48" s="169" t="inlineStr">
         <is>
           <t>SIGNATURE</t>
         </is>
       </c>
-      <c r="D46" s="170" t="n"/>
-      <c r="E46" s="171" t="n"/>
-    </row>
-    <row r="47" ht="13.5" customHeight="1" s="100"/>
-    <row r="48" ht="13.5" customHeight="1" s="100"/>
+      <c r="D48" s="170" t="n"/>
+      <c r="E48" s="171" t="n"/>
+    </row>
     <row r="49" ht="13.5" customHeight="1" s="100"/>
     <row r="50" ht="13.5" customHeight="1" s="100"/>
     <row r="51" ht="13.5" customHeight="1" s="100"/>
@@ -2681,7 +2723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A4:G46"/>
+  <dimension ref="A4:G48"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="0" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
@@ -3001,87 +3043,121 @@
       <c r="G31" s="179" t="n"/>
     </row>
     <row r="32" ht="13.5" customHeight="1" s="100">
-      <c r="C32" s="180" t="n"/>
-      <c r="E32" s="181" t="n"/>
+      <c r="A32" s="175" t="inlineStr">
+        <is>
+          <t>000111</t>
+        </is>
+      </c>
+      <c r="B32" s="175" t="inlineStr">
+        <is>
+          <t>애터미 알래스카 이-오메가3</t>
+        </is>
+      </c>
+      <c r="C32" s="176" t="n"/>
+      <c r="D32" s="177" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="178" t="n"/>
+      <c r="G32" s="179" t="n"/>
     </row>
     <row r="33" ht="13.5" customHeight="1" s="100">
-      <c r="E33" s="98" t="n"/>
-    </row>
-    <row r="34" ht="13.5" customHeight="1" s="100"/>
-    <row r="35" ht="13.5" customHeight="1" s="100"/>
-    <row r="36" ht="13.5" customHeight="1" s="100">
-      <c r="A36" s="150" t="inlineStr">
+      <c r="A33" s="175" t="inlineStr">
+        <is>
+          <t>1235</t>
+        </is>
+      </c>
+      <c r="B33" s="175" t="inlineStr">
+        <is>
+          <t>애터미 옴므 에너자이징 올인원</t>
+        </is>
+      </c>
+      <c r="C33" s="176" t="n"/>
+      <c r="D33" s="177" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="178" t="n"/>
+      <c r="G33" s="179" t="n"/>
+    </row>
+    <row r="34" ht="13.5" customHeight="1" s="100">
+      <c r="C34" s="180" t="n"/>
+      <c r="E34" s="181" t="n"/>
+    </row>
+    <row r="35" ht="13.5" customHeight="1" s="100">
+      <c r="E35" s="98" t="n"/>
+    </row>
+    <row r="36" ht="13.5" customHeight="1" s="100"/>
+    <row r="37" ht="13.5" customHeight="1" s="100"/>
+    <row r="38" ht="13.5" customHeight="1" s="100">
+      <c r="A38" s="150" t="inlineStr">
         <is>
           <t>Carton (s)</t>
         </is>
       </c>
-      <c r="B36" s="151" t="inlineStr">
+      <c r="B38" s="151" t="inlineStr">
         <is>
           <t>1 BOX</t>
         </is>
       </c>
-      <c r="C36" s="152" t="n"/>
-      <c r="D36" s="153" t="inlineStr">
+      <c r="C38" s="152" t="n"/>
+      <c r="D38" s="153" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="E36" s="154" t="n"/>
-    </row>
-    <row r="37" ht="13.5" customHeight="1" s="100">
-      <c r="A37" s="155" t="n"/>
-      <c r="B37" s="156" t="n"/>
-      <c r="C37" s="157" t="n"/>
-      <c r="D37" s="158" t="n"/>
-      <c r="E37" s="159" t="n"/>
-    </row>
-    <row r="38" ht="13.5" customHeight="1" s="100">
-      <c r="A38" s="155" t="n"/>
-      <c r="B38" s="156" t="n"/>
-      <c r="C38" s="160" t="n"/>
-      <c r="D38" s="161" t="inlineStr">
-        <is>
-          <t>7psc</t>
-        </is>
-      </c>
-      <c r="E38" s="162" t="n"/>
+      <c r="E38" s="154" t="n"/>
     </row>
     <row r="39" ht="13.5" customHeight="1" s="100">
-      <c r="A39" s="155" t="inlineStr">
+      <c r="A39" s="155" t="n"/>
+      <c r="B39" s="156" t="n"/>
+      <c r="C39" s="157" t="n"/>
+      <c r="D39" s="158" t="n"/>
+      <c r="E39" s="159" t="n"/>
+    </row>
+    <row r="40" ht="13.5" customHeight="1" s="100">
+      <c r="A40" s="155" t="n"/>
+      <c r="B40" s="156" t="n"/>
+      <c r="C40" s="160" t="n"/>
+      <c r="D40" s="161" t="inlineStr">
+        <is>
+          <t>9psc</t>
+        </is>
+      </c>
+      <c r="E40" s="162" t="n"/>
+    </row>
+    <row r="41" ht="13.5" customHeight="1" s="100">
+      <c r="A41" s="155" t="inlineStr">
         <is>
           <t>Total Weight</t>
         </is>
       </c>
-      <c r="B39" s="163" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="C39" s="160" t="n"/>
-      <c r="D39" s="97" t="n"/>
-      <c r="E39" s="162" t="n"/>
-    </row>
-    <row r="40" ht="13.5" customHeight="1" s="100">
-      <c r="A40" s="164" t="n"/>
-      <c r="B40" s="165" t="n"/>
-      <c r="C40" s="166" t="n"/>
-      <c r="D40" s="167" t="n"/>
-      <c r="E40" s="168" t="n"/>
-    </row>
-    <row r="41" ht="13.5" customHeight="1" s="100"/>
-    <row r="42" ht="13.5" customHeight="1" s="100"/>
+      <c r="B41" s="163" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="C41" s="160" t="n"/>
+      <c r="D41" s="97" t="n"/>
+      <c r="E41" s="162" t="n"/>
+    </row>
+    <row r="42" ht="13.5" customHeight="1" s="100">
+      <c r="A42" s="164" t="n"/>
+      <c r="B42" s="165" t="n"/>
+      <c r="C42" s="166" t="n"/>
+      <c r="D42" s="167" t="n"/>
+      <c r="E42" s="168" t="n"/>
+    </row>
     <row r="43" ht="13.5" customHeight="1" s="100"/>
     <row r="44" ht="13.5" customHeight="1" s="100"/>
     <row r="45" ht="13.5" customHeight="1" s="100"/>
-    <row r="46" ht="13.5" customHeight="1" s="100">
-      <c r="C46" s="169" t="inlineStr">
+    <row r="46" ht="13.5" customHeight="1" s="100"/>
+    <row r="47" ht="13.5" customHeight="1" s="100"/>
+    <row r="48" ht="13.5" customHeight="1" s="100">
+      <c r="C48" s="169" t="inlineStr">
         <is>
           <t>SIGNATURE</t>
         </is>
       </c>
-      <c r="D46" s="170" t="n"/>
-      <c r="E46" s="171" t="n"/>
-    </row>
-    <row r="47" ht="13.5" customHeight="1" s="100"/>
-    <row r="48" ht="13.5" customHeight="1" s="100"/>
+      <c r="D48" s="170" t="n"/>
+      <c r="E48" s="171" t="n"/>
+    </row>
     <row r="49" ht="13.5" customHeight="1" s="100"/>
     <row r="50" ht="13.5" customHeight="1" s="100"/>
     <row r="51" ht="13.5" customHeight="1" s="100"/>
